--- a/data/statistical/filled_NaN_xlsx/湖南省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/湖南省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>42.9</v>
       </c>
       <c r="E2">
-        <v>2454.819641798735</v>
+        <v>2454.819642543793</v>
       </c>
       <c r="F2">
         <v>5574.72</v>
@@ -609,85 +609,85 @@
         <v>4.86</v>
       </c>
       <c r="H2">
-        <v>41.95714138488984</v>
+        <v>41.95714138518088</v>
       </c>
       <c r="I2">
-        <v>4.046511867803929</v>
+        <v>4.046511868014932</v>
       </c>
       <c r="J2">
-        <v>64.99987700395286</v>
+        <v>64.99987698160112</v>
       </c>
       <c r="K2">
-        <v>54.77054444048554</v>
+        <v>54.77054444001988</v>
       </c>
       <c r="L2">
-        <v>0.857125922646901</v>
+        <v>0.8571259226455368</v>
       </c>
       <c r="M2">
-        <v>201.8331177355722</v>
+        <v>201.8331177392974</v>
       </c>
       <c r="N2">
-        <v>306.5058823549189</v>
+        <v>306.5058823553845</v>
       </c>
       <c r="O2">
         <v>28.06468135863543</v>
       </c>
       <c r="P2">
-        <v>2806.084318817751</v>
+        <v>3413.374964550574</v>
       </c>
       <c r="Q2">
-        <v>100.9483386611581</v>
+        <v>101.2342685100082</v>
       </c>
       <c r="R2">
-        <v>23.36086170561612</v>
+        <v>23.36086169769987</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-94089.79946613312</v>
       </c>
       <c r="T2">
-        <v>52672.30881929398</v>
+        <v>52672.30883979797</v>
       </c>
       <c r="U2">
-        <v>0.8644852907100959</v>
+        <v>0.4230575849367139</v>
       </c>
       <c r="V2">
-        <v>14.64623323548585</v>
+        <v>14.64623323443811</v>
       </c>
       <c r="W2">
-        <v>8.49410988506861</v>
+        <v>8.494109883904457</v>
       </c>
       <c r="X2">
-        <v>31754.54901361465</v>
+        <v>31754.5490193367</v>
       </c>
       <c r="Y2">
-        <v>16.15320331580006</v>
+        <v>16.1532033222029</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-17314.09443664551</v>
       </c>
       <c r="AA2">
-        <v>380.4405596200377</v>
+        <v>333.7604895802215</v>
       </c>
       <c r="AB2">
-        <v>1030773.173034668</v>
+        <v>310935.1000480652</v>
       </c>
       <c r="AC2">
-        <v>1239257.851043701</v>
+        <v>489850.641002655</v>
       </c>
       <c r="AD2">
-        <v>6936.79545789957</v>
+        <v>1502.015734761953</v>
       </c>
       <c r="AE2">
-        <v>6191.561892335085</v>
+        <v>6246.100080654025</v>
       </c>
       <c r="AF2">
-        <v>6993.61733346233</v>
+        <v>24642.5766248107</v>
       </c>
       <c r="AG2">
-        <v>58744.7590259405</v>
+        <v>350966.9796390533</v>
       </c>
       <c r="AH2">
-        <v>316275.5369150215</v>
+        <v>753840.8204727173</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>4.95</v>
       </c>
       <c r="H3">
-        <v>42.20285861880984</v>
+        <v>42.20285861907178</v>
       </c>
       <c r="I3">
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>47.71908781304955</v>
+        <v>47.7190877944231</v>
       </c>
       <c r="K3">
         <v>47.2104017390595</v>
@@ -743,13 +743,13 @@
         <v>95.90000000000001</v>
       </c>
       <c r="R3">
-        <v>19.41107842558995</v>
+        <v>19.41107841790654</v>
       </c>
       <c r="S3">
         <v>64679.2</v>
       </c>
       <c r="T3">
-        <v>58528.24999475479</v>
+        <v>58528.25001525879</v>
       </c>
       <c r="U3">
         <v>0.55</v>
@@ -764,34 +764,34 @@
         <v>7555</v>
       </c>
       <c r="Y3">
-        <v>16.08279397164006</v>
+        <v>16.08279397687875</v>
       </c>
       <c r="Z3">
-        <v>32207.89213371277</v>
+        <v>32207.89214801788</v>
       </c>
       <c r="AA3">
-        <v>339.5664337202907</v>
+        <v>295.7849650932476</v>
       </c>
       <c r="AB3">
-        <v>858883.4792480469</v>
+        <v>272131.8378000259</v>
       </c>
       <c r="AC3">
-        <v>1029828.383178711</v>
+        <v>422721.0158119202</v>
       </c>
       <c r="AD3">
-        <v>5548.470282614231</v>
+        <v>1238.026224188507</v>
       </c>
       <c r="AE3">
-        <v>4216.332129901825</v>
+        <v>5626.316853746772</v>
       </c>
       <c r="AF3">
-        <v>5042.593096880501</v>
+        <v>21199.71342080832</v>
       </c>
       <c r="AG3">
-        <v>34992.27392249197</v>
+        <v>297405.4778747559</v>
       </c>
       <c r="AH3">
-        <v>208822.0595055831</v>
+        <v>646191.6889724731</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>5.09</v>
       </c>
       <c r="H4">
-        <v>42.52509804055444</v>
+        <v>42.52509804081637</v>
       </c>
       <c r="I4">
         <v>4.4</v>
       </c>
       <c r="J4">
-        <v>37.60356770455837</v>
+        <v>37.60356768779457</v>
       </c>
       <c r="K4">
         <v>41.8295834411568</v>
@@ -847,7 +847,7 @@
         <v>98.68000000000001</v>
       </c>
       <c r="R4">
-        <v>16.00764705473557</v>
+        <v>16.00764704705216</v>
       </c>
       <c r="S4">
         <v>38587.8</v>
@@ -868,34 +868,34 @@
         <v>6828</v>
       </c>
       <c r="Y4">
-        <v>16.29143682552967</v>
+        <v>16.29143682960421</v>
       </c>
       <c r="Z4">
         <v>333772</v>
       </c>
       <c r="AA4">
-        <v>303.8711290024221</v>
+        <v>260.5731768691912</v>
       </c>
       <c r="AB4">
-        <v>708926.8023529053</v>
+        <v>236561.8842449188</v>
       </c>
       <c r="AC4">
-        <v>846670.2409896851</v>
+        <v>361245.3069038391</v>
       </c>
       <c r="AD4">
-        <v>4337.971780776978</v>
+        <v>1006.491758570075</v>
       </c>
       <c r="AE4">
-        <v>3703.756640194104</v>
+        <v>5039.46255287528</v>
       </c>
       <c r="AF4">
-        <v>2044.246409094076</v>
+        <v>18011.71060651541</v>
       </c>
       <c r="AG4">
-        <v>-12975.60753537279</v>
+        <v>248081.5357017517</v>
       </c>
       <c r="AH4">
-        <v>302571.0434470389</v>
+        <v>546706.8608703613</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.3</v>
       </c>
       <c r="J5">
-        <v>34.6533166822046</v>
+        <v>34.65331666916609</v>
       </c>
       <c r="K5">
         <v>37.9022452661421</v>
@@ -972,34 +972,34 @@
         <v>3735</v>
       </c>
       <c r="Y5">
-        <v>16.77913187770173</v>
+        <v>16.77913188072853</v>
       </c>
       <c r="Z5">
         <v>136479</v>
       </c>
       <c r="AA5">
-        <v>273.3546454645693</v>
+        <v>228.1251249117777</v>
       </c>
       <c r="AB5">
-        <v>580903.1423416138</v>
+        <v>204225.2393817902</v>
       </c>
       <c r="AC5">
-        <v>689783.4244766235</v>
+        <v>305423.5142822266</v>
       </c>
       <c r="AD5">
-        <v>3305.299952208996</v>
+        <v>807.4123379066586</v>
       </c>
       <c r="AE5">
-        <v>754.6797040802753</v>
+        <v>4485.53717802465</v>
       </c>
       <c r="AF5">
-        <v>6990.597347289773</v>
+        <v>15078.56818187237</v>
       </c>
       <c r="AG5">
-        <v>19113.20967377417</v>
+        <v>202995.1531219482</v>
       </c>
       <c r="AH5">
-        <v>275509.2111257741</v>
+        <v>455386.3361682892</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>2145</v>
       </c>
       <c r="Y6">
-        <v>17.54587912769057</v>
+        <v>17.54587912978604</v>
       </c>
       <c r="Z6">
         <v>134529</v>
       </c>
       <c r="AA6">
-        <v>248.0169831067324</v>
+        <v>198.4408092172816</v>
       </c>
       <c r="AB6">
-        <v>474812.4992370605</v>
+        <v>175121.9032096863</v>
       </c>
       <c r="AC6">
-        <v>559167.9336471558</v>
+        <v>255255.6379451752</v>
       </c>
       <c r="AD6">
-        <v>2450.4547970891</v>
+        <v>640.7879622206092</v>
       </c>
       <c r="AE6">
-        <v>5724.263932698938</v>
+        <v>3964.540729224682</v>
       </c>
       <c r="AF6">
-        <v>4998.007751498354</v>
+        <v>12400.2861468792</v>
       </c>
       <c r="AG6">
-        <v>-9125.621229121023</v>
+        <v>162146.3301353455</v>
       </c>
       <c r="AH6">
-        <v>257988.7103401032</v>
+        <v>372230.1148662567</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>76210</v>
       </c>
       <c r="AA7">
-        <v>227.8581419307739</v>
+        <v>171.5202297894284</v>
       </c>
       <c r="AB7">
-        <v>390654.8730010986</v>
+        <v>149251.8757324219</v>
       </c>
       <c r="AC7">
-        <v>454823.7684936523</v>
+        <v>210741.6778945923</v>
       </c>
       <c r="AD7">
-        <v>1773.436315178871</v>
+        <v>506.6186314970255</v>
       </c>
       <c r="AE7">
-        <v>5231.221598024314</v>
+        <v>3476.473206475377</v>
       </c>
       <c r="AF7">
-        <v>-303.2176169926649</v>
+        <v>9976.864501476288</v>
       </c>
       <c r="AG7">
-        <v>40578.34077956012</v>
+        <v>125535.0667362213</v>
       </c>
       <c r="AH7">
-        <v>298862.6093394884</v>
+        <v>297238.1969623566</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>80004</v>
       </c>
       <c r="AA8">
-        <v>212.8781219348311</v>
+        <v>147.3633866244927</v>
       </c>
       <c r="AB8">
-        <v>328430.2636489868</v>
+        <v>126615.1569452286</v>
       </c>
       <c r="AC8">
-        <v>376750.9290237427</v>
+        <v>171881.6341285706</v>
       </c>
       <c r="AD8">
-        <v>1274.244506776333</v>
+        <v>404.9043457359076</v>
       </c>
       <c r="AE8">
-        <v>4169.158937038036</v>
+        <v>3021.334609732032</v>
       </c>
       <c r="AF8">
-        <v>6843.765876344015</v>
+        <v>7808.303245902061</v>
       </c>
       <c r="AG8">
-        <v>59216.62177381264</v>
+        <v>93161.3629322052</v>
       </c>
       <c r="AH8">
-        <v>203630.8982575484</v>
+        <v>230410.5824584961</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>125031</v>
       </c>
       <c r="AA9">
-        <v>203.0769231151789</v>
+        <v>125.9702797243372</v>
       </c>
       <c r="AB9">
-        <v>288138.6711883545</v>
+        <v>107211.7468500137</v>
       </c>
       <c r="AC9">
-        <v>324949.4152297974</v>
+        <v>138675.50664711</v>
       </c>
       <c r="AD9">
-        <v>952.8793715834618</v>
+        <v>335.6451049223542</v>
       </c>
       <c r="AE9">
-        <v>6169.310066017307</v>
+        <v>2599.12493903935</v>
       </c>
       <c r="AF9">
-        <v>4259.123436708049</v>
+        <v>5894.602379918098</v>
       </c>
       <c r="AG9">
-        <v>37395.41975221963</v>
+        <v>65025.21871757507</v>
       </c>
       <c r="AH9">
-        <v>261664.0492510905</v>
+        <v>171747.2713527679</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>213448</v>
       </c>
       <c r="AA10">
-        <v>198.4545454811305</v>
+        <v>107.3409090908244</v>
       </c>
       <c r="AB10">
-        <v>269780.0956192017</v>
+        <v>91041.64544963837</v>
       </c>
       <c r="AC10">
-        <v>299419.2271194458</v>
+        <v>111123.2954559326</v>
       </c>
       <c r="AD10">
-        <v>809.3409098982811</v>
+        <v>298.8409090861678</v>
       </c>
       <c r="AE10">
-        <v>3211.125636081531</v>
+        <v>2209.84419439733</v>
       </c>
       <c r="AF10">
-        <v>3650.5744194863</v>
+        <v>4235.761903643608</v>
       </c>
       <c r="AG10">
-        <v>-9089.701785838755</v>
+        <v>41126.63409423828</v>
       </c>
       <c r="AH10">
-        <v>258240.7797312979</v>
+        <v>121248.2636470795</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>402435</v>
       </c>
       <c r="AA11">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="AB11">
-        <v>203829</v>
+        <v>65191</v>
       </c>
       <c r="AC11">
-        <v>218756</v>
+        <v>74566</v>
       </c>
       <c r="AD11">
-        <v>819</v>
+        <v>240</v>
       </c>
       <c r="AE11">
-        <v>1705</v>
+        <v>1806</v>
       </c>
       <c r="AF11">
-        <v>3321</v>
+        <v>3883</v>
       </c>
       <c r="AG11">
-        <v>6135</v>
+        <v>1568</v>
       </c>
       <c r="AH11">
-        <v>180340</v>
+        <v>32026</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>404239</v>
       </c>
       <c r="AA12">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="AB12">
-        <v>231106</v>
+        <v>60799</v>
       </c>
       <c r="AC12">
-        <v>268109</v>
+        <v>66034</v>
       </c>
       <c r="AD12">
-        <v>1066</v>
+        <v>317</v>
       </c>
       <c r="AE12">
-        <v>614</v>
+        <v>1530.06948322058</v>
       </c>
       <c r="AF12">
-        <v>748</v>
+        <v>644</v>
       </c>
       <c r="AG12">
-        <v>8638</v>
+        <v>2023</v>
       </c>
       <c r="AH12">
-        <v>181465</v>
+        <v>68356</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>349772</v>
       </c>
       <c r="AA13">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="AB13">
-        <v>433737</v>
+        <v>63038</v>
       </c>
       <c r="AC13">
-        <v>494820</v>
+        <v>66433</v>
       </c>
       <c r="AD13">
-        <v>1307</v>
+        <v>403</v>
       </c>
       <c r="AE13">
-        <v>1160</v>
+        <v>1239.57551674545</v>
       </c>
       <c r="AF13">
-        <v>4231</v>
+        <v>30</v>
       </c>
       <c r="AG13">
-        <v>6183</v>
+        <v>3893</v>
       </c>
       <c r="AH13">
-        <v>288532</v>
+        <v>27134</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>391942</v>
       </c>
       <c r="AA14">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c r="AB14">
-        <v>465758</v>
+        <v>72384</v>
       </c>
       <c r="AC14">
-        <v>571955</v>
+        <v>79827</v>
       </c>
       <c r="AD14">
-        <v>2424</v>
+        <v>458</v>
       </c>
       <c r="AE14">
-        <v>820</v>
+        <v>982.010476261377</v>
       </c>
       <c r="AF14">
-        <v>4097</v>
+        <v>159</v>
       </c>
       <c r="AG14">
-        <v>6528</v>
+        <v>3367</v>
       </c>
       <c r="AH14">
-        <v>270636</v>
+        <v>18361</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>559829</v>
       </c>
       <c r="AA15">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="AB15">
-        <v>640477</v>
+        <v>77969</v>
       </c>
       <c r="AC15">
-        <v>649620</v>
+        <v>70588</v>
       </c>
       <c r="AD15">
-        <v>2867</v>
+        <v>528</v>
       </c>
       <c r="AE15">
-        <v>2371</v>
+        <v>757.374361813068</v>
       </c>
       <c r="AF15">
-        <v>1486</v>
+        <v>37</v>
       </c>
       <c r="AG15">
-        <v>11896</v>
+        <v>381</v>
       </c>
       <c r="AH15">
-        <v>301777</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>503235</v>
       </c>
       <c r="AA16">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="AB16">
-        <v>637668</v>
+        <v>85092</v>
       </c>
       <c r="AC16">
-        <v>649858</v>
+        <v>82957</v>
       </c>
       <c r="AD16">
-        <v>3187</v>
+        <v>1077</v>
       </c>
       <c r="AE16">
-        <v>2685</v>
+        <v>1073</v>
       </c>
       <c r="AF16">
-        <v>978</v>
+        <v>219</v>
       </c>
       <c r="AG16">
-        <v>3519</v>
+        <v>572</v>
       </c>
       <c r="AH16">
-        <v>408201</v>
+        <v>18489</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>655.8375</v>
       </c>
       <c r="K17">
-        <v>11.88028801395558</v>
+        <v>11.88028801511973</v>
       </c>
       <c r="L17">
-        <v>0.5130791163564936</v>
+        <v>0.5130791163569484</v>
       </c>
       <c r="M17">
         <v>8.13690014087266</v>
@@ -2226,28 +2226,28 @@
         <v>554139</v>
       </c>
       <c r="AA17">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="AB17">
-        <v>787754.5</v>
+        <v>81270.5</v>
       </c>
       <c r="AC17">
-        <v>802176.7</v>
+        <v>86729.3</v>
       </c>
       <c r="AD17">
-        <v>3868</v>
+        <v>1195</v>
       </c>
       <c r="AE17">
-        <v>1725</v>
+        <v>62</v>
       </c>
       <c r="AF17">
-        <v>576</v>
+        <v>26</v>
       </c>
       <c r="AG17">
-        <v>5818</v>
+        <v>305</v>
       </c>
       <c r="AH17">
-        <v>368452</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>753.4</v>
       </c>
       <c r="K18">
-        <v>13.40854739979841</v>
+        <v>13.4085474004969</v>
       </c>
       <c r="L18">
-        <v>0.4799437253846008</v>
+        <v>0.4799437253850556</v>
       </c>
       <c r="M18">
         <v>6.29880815180897</v>
@@ -2312,13 +2312,13 @@
         <v>19558</v>
       </c>
       <c r="U18">
-        <v>0.8873819250433572</v>
+        <v>1.076030394189184</v>
       </c>
       <c r="V18">
         <v>96</v>
       </c>
       <c r="W18">
-        <v>104.5021098938305</v>
+        <v>104.5021098926663</v>
       </c>
       <c r="X18">
         <v>30068</v>
@@ -2330,28 +2330,28 @@
         <v>584316</v>
       </c>
       <c r="AA18">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="AB18">
-        <v>864734.6</v>
+        <v>60843.2</v>
       </c>
       <c r="AC18">
-        <v>975921.9</v>
+        <v>65243.8</v>
       </c>
       <c r="AD18">
-        <v>7546</v>
+        <v>857</v>
       </c>
       <c r="AE18">
-        <v>18444.2</v>
+        <v>40.5</v>
       </c>
       <c r="AF18">
-        <v>8439.5</v>
+        <v>126.5</v>
       </c>
       <c r="AG18">
-        <v>33284.7</v>
+        <v>11</v>
       </c>
       <c r="AH18">
-        <v>150517.7</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>52.2513</v>
       </c>
       <c r="E19">
-        <v>21737.39464309812</v>
+        <v>21737.39464224875</v>
       </c>
       <c r="F19">
         <v>26923.9852</v>
@@ -2386,7 +2386,7 @@
         <v>800.1</v>
       </c>
       <c r="K19">
-        <v>15.4852580120787</v>
+        <v>15.48525801301003</v>
       </c>
       <c r="L19">
         <v>0.4455334672607023</v>
@@ -2416,13 +2416,13 @@
         <v>2215</v>
       </c>
       <c r="U19">
-        <v>0.5953585996826536</v>
+        <v>0.9583516648575461</v>
       </c>
       <c r="V19">
         <v>97.09999999999999</v>
       </c>
       <c r="W19">
-        <v>104.8014011029154</v>
+        <v>104.8014011012856</v>
       </c>
       <c r="X19">
         <v>100325</v>
@@ -2434,28 +2434,28 @@
         <v>574543</v>
       </c>
       <c r="AA19">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="AB19">
-        <v>858548.9</v>
+        <v>49524.1</v>
       </c>
       <c r="AC19">
-        <v>1221926.7</v>
+        <v>86899.2</v>
       </c>
       <c r="AD19">
-        <v>7647</v>
+        <v>1335</v>
       </c>
       <c r="AE19">
-        <v>1769.9</v>
+        <v>42.9</v>
       </c>
       <c r="AF19">
-        <v>15572.4</v>
+        <v>401.5</v>
       </c>
       <c r="AG19">
-        <v>19622.5</v>
+        <v>4108.6</v>
       </c>
       <c r="AH19">
-        <v>139679.8</v>
+        <v>7985.3</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>51.4</v>
       </c>
       <c r="E20">
-        <v>23407.48834051192</v>
+        <v>23407.48833952844</v>
       </c>
       <c r="F20">
         <v>26796.4362</v>
@@ -2490,7 +2490,7 @@
         <v>806.2201</v>
       </c>
       <c r="K20">
-        <v>18.11041985079646</v>
+        <v>18.11041985196061</v>
       </c>
       <c r="L20">
         <v>0.4098483419843433</v>
@@ -2520,13 +2520,13 @@
         <v>2036</v>
       </c>
       <c r="U20">
-        <v>0.8016191991164867</v>
+        <v>1.160133928368087</v>
       </c>
       <c r="V20">
         <v>97.8</v>
       </c>
       <c r="W20">
-        <v>104.4299618657678</v>
+        <v>104.4299618639052</v>
       </c>
       <c r="X20">
         <v>113280</v>
@@ -2538,28 +2538,28 @@
         <v>574010</v>
       </c>
       <c r="AA20">
-        <v>379</v>
+        <v>63</v>
       </c>
       <c r="AB20">
-        <v>1212382</v>
+        <v>82978</v>
       </c>
       <c r="AC20">
-        <v>1355626</v>
+        <v>120874</v>
       </c>
       <c r="AD20">
-        <v>8586</v>
+        <v>1268</v>
       </c>
       <c r="AE20">
-        <v>289</v>
+        <v>458</v>
       </c>
       <c r="AF20">
-        <v>10</v>
+        <v>1664.67857199907</v>
       </c>
       <c r="AG20">
-        <v>4893</v>
+        <v>244</v>
       </c>
       <c r="AH20">
-        <v>125885</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>51.4901</v>
       </c>
       <c r="E21">
-        <v>25137.11810235679</v>
+        <v>25137.1181012392</v>
       </c>
       <c r="F21">
         <v>28293.8</v>
@@ -2594,25 +2594,25 @@
         <v>873.8523</v>
       </c>
       <c r="K21">
-        <v>21.28403291688301</v>
+        <v>21.28403291804716</v>
       </c>
       <c r="L21">
-        <v>0.3728883495555237</v>
+        <v>0.3728883495541595</v>
       </c>
       <c r="M21">
         <v>1.84219093456619</v>
       </c>
       <c r="N21">
-        <v>227.1666666618548</v>
+        <v>227.1666666599922</v>
       </c>
       <c r="O21">
-        <v>105.5327205951326</v>
+        <v>105.5327205909416</v>
       </c>
       <c r="P21">
         <v>1817.7</v>
       </c>
       <c r="Q21">
-        <v>95.2391056250575</v>
+        <v>92.14034909248609</v>
       </c>
       <c r="R21">
         <v>41.5</v>
@@ -2621,49 +2621,49 @@
         <v>426948</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-19061.50002193451</v>
       </c>
       <c r="U21">
-        <v>0.880409351900642</v>
+        <v>1.115316515661444</v>
       </c>
       <c r="V21">
         <v>98.59999999999999</v>
       </c>
       <c r="W21">
-        <v>103.3877921826206</v>
+        <v>103.387792180758</v>
       </c>
       <c r="X21">
-        <v>103915.2745060921</v>
+        <v>103915.2744984627</v>
       </c>
       <c r="Y21">
-        <v>62.53335165407043</v>
+        <v>62.53335165651515</v>
       </c>
       <c r="Z21">
         <v>153227</v>
       </c>
       <c r="AA21">
-        <v>512</v>
+        <v>95</v>
       </c>
       <c r="AB21">
-        <v>1619539</v>
+        <v>128548</v>
       </c>
       <c r="AC21">
-        <v>1903115</v>
+        <v>207771</v>
       </c>
       <c r="AD21">
-        <v>10717</v>
+        <v>2482</v>
       </c>
       <c r="AE21">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AF21">
-        <v>184</v>
+        <v>2809.30238175392</v>
       </c>
       <c r="AG21">
-        <v>188483</v>
+        <v>1227</v>
       </c>
       <c r="AH21">
-        <v>300335</v>
+        <v>41734</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>51.1298</v>
       </c>
       <c r="E22">
-        <v>26926.28392860293</v>
+        <v>26926.28392733634</v>
       </c>
       <c r="F22">
         <v>29580.105</v>
@@ -2692,82 +2692,82 @@
         <v>60.31</v>
       </c>
       <c r="I22">
-        <v>2.271424149017548</v>
+        <v>2.27142414872651</v>
       </c>
       <c r="J22">
-        <v>1080.785219082609</v>
+        <v>1080.785219095647</v>
       </c>
       <c r="K22">
-        <v>25.00609720894136</v>
+        <v>25.006097210804</v>
       </c>
       <c r="L22">
-        <v>0.3346534899746985</v>
+        <v>0.3346534899728795</v>
       </c>
       <c r="M22">
-        <v>14.16992592252791</v>
+        <v>14.16992592206225</v>
       </c>
       <c r="N22">
-        <v>236.2076367335394</v>
+        <v>236.2076367312111</v>
       </c>
       <c r="O22">
-        <v>122.992558056023</v>
+        <v>122.992558051832</v>
       </c>
       <c r="P22">
-        <v>2898.584482772118</v>
+        <v>3887.599244970791</v>
       </c>
       <c r="Q22">
-        <v>101.1945607164618</v>
+        <v>102.6689143025028</v>
       </c>
       <c r="R22">
-        <v>48.17205881769769</v>
+        <v>48.17205883259885</v>
       </c>
       <c r="S22">
         <v>404002</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-33538.52453517914</v>
       </c>
       <c r="U22">
-        <v>0.5697020897161681</v>
+        <v>1.212516190009466</v>
       </c>
       <c r="V22">
-        <v>98.50939112494234</v>
+        <v>98.50939112482592</v>
       </c>
       <c r="W22">
-        <v>101.6748920539394</v>
+        <v>101.6748920511454</v>
       </c>
       <c r="X22">
-        <v>123287.5830702782</v>
+        <v>123287.5830612183</v>
       </c>
       <c r="Y22">
-        <v>67.76493407425005</v>
+        <v>67.76493407762609</v>
       </c>
       <c r="Z22">
-        <v>490318.6764316559</v>
+        <v>490318.6764774323</v>
       </c>
       <c r="AA22">
-        <v>592</v>
+        <v>109</v>
       </c>
       <c r="AB22">
-        <v>1833476.4</v>
+        <v>180519.4</v>
       </c>
       <c r="AC22">
-        <v>2052554.3</v>
+        <v>234510.3</v>
       </c>
       <c r="AD22">
-        <v>13211</v>
+        <v>2369</v>
       </c>
       <c r="AE22">
-        <v>53.4</v>
+        <v>106.931489139795</v>
       </c>
       <c r="AF22">
-        <v>15.5</v>
+        <v>4208.78658097982</v>
       </c>
       <c r="AG22">
-        <v>10818.3</v>
+        <v>154202.1</v>
       </c>
       <c r="AH22">
-        <v>329149.7</v>
+        <v>245171.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>53.1</v>
       </c>
       <c r="E23">
-        <v>28774.98581922054</v>
+        <v>28774.98581783473</v>
       </c>
       <c r="F23">
-        <v>32700.49867171049</v>
+        <v>32700.49867114425</v>
       </c>
       <c r="G23">
         <v>-3.08</v>
       </c>
       <c r="H23">
-        <v>63.18686274558422</v>
+        <v>63.18686274529318</v>
       </c>
       <c r="I23">
-        <v>1.952623323508305</v>
+        <v>1.952623323173611</v>
       </c>
       <c r="J23">
-        <v>1206.809811566025</v>
+        <v>1206.809811575338</v>
       </c>
       <c r="K23">
-        <v>29.27661272836849</v>
+        <v>29.27661272999831</v>
       </c>
       <c r="L23">
-        <v>0.2951437632409579</v>
+        <v>0.2951437632386842</v>
       </c>
       <c r="M23">
         <v>20.68697082949802</v>
       </c>
       <c r="N23">
-        <v>246.5702786310576</v>
+        <v>246.5702786291949</v>
       </c>
       <c r="O23">
-        <v>141.7906527407467</v>
+        <v>141.7906527356245</v>
       </c>
       <c r="P23">
-        <v>3116.173928126834</v>
+        <v>2589.63514908094</v>
       </c>
       <c r="Q23">
-        <v>97.8819655135616</v>
+        <v>96.95184329868147</v>
       </c>
       <c r="R23">
-        <v>55.14931371761486</v>
+        <v>55.14931373507716</v>
       </c>
       <c r="S23">
-        <v>437546.3805351257</v>
+        <v>437546.3805465698</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-49085.70513629913</v>
       </c>
       <c r="U23">
-        <v>1.044362938890246</v>
+        <v>0.9113890306052668</v>
       </c>
       <c r="V23">
         <v>97.57220846274868</v>
       </c>
       <c r="W23">
-        <v>99.29126147879288</v>
+        <v>99.29126147530042</v>
       </c>
       <c r="X23">
-        <v>144217.3291993141</v>
+        <v>144217.3291888237</v>
       </c>
       <c r="Y23">
-        <v>73.27556869224645</v>
+        <v>73.27556869690306</v>
       </c>
       <c r="Z23">
-        <v>489018.8776578903</v>
+        <v>489018.8777170181</v>
       </c>
       <c r="AA23">
-        <v>609.6363636683673</v>
+        <v>116.6590909417719</v>
       </c>
       <c r="AB23">
-        <v>2027023.149971008</v>
+        <v>175061.418217659</v>
       </c>
       <c r="AC23">
-        <v>2358217.418510437</v>
+        <v>267450.9318599701</v>
       </c>
       <c r="AD23">
-        <v>15125.56818193197</v>
+        <v>2773.795454792678</v>
       </c>
       <c r="AE23">
-        <v>5937.105346093766</v>
+        <v>145.7267832607031</v>
       </c>
       <c r="AF23">
-        <v>4209.491591074991</v>
+        <v>5863.13117235899</v>
       </c>
       <c r="AG23">
-        <v>16875.21780801683</v>
+        <v>116062.9568538666</v>
       </c>
       <c r="AH23">
-        <v>253365.4299340166</v>
+        <v>207712.7728042603</v>
       </c>
     </row>
   </sheetData>
